--- a/informacion/Conceptos.xlsx
+++ b/informacion/Conceptos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Conceptos\Conceptos\tablas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Conceptos\Conceptos\informacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Ministerio</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>SUELDO BÁSICO</t>
+  </si>
+  <si>
+    <t>AGENCIA DE RECAUDACION DE LA PROVINCIA DE BUENOS AIRES</t>
   </si>
 </sst>
 </file>
@@ -541,13 +544,14 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -598,7 +602,9 @@
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
@@ -628,7 +634,9 @@
         <v>8</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="3"/>
@@ -658,7 +666,9 @@
         <v>9</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
@@ -688,7 +698,9 @@
         <v>10</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="3"/>
@@ -718,7 +730,9 @@
         <v>11</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="3"/>

--- a/informacion/Conceptos.xlsx
+++ b/informacion/Conceptos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>Ministerio</t>
   </si>
@@ -172,18 +172,52 @@
   <si>
     <t>AGENCIA DE RECAUDACION DE LA PROVINCIA DE BUENOS AIRES</t>
   </si>
+  <si>
+    <t>ASESORIA GENERAL DE GOBIERNO</t>
+  </si>
+  <si>
+    <t>funcionario</t>
+  </si>
+  <si>
+    <t>autoridad-superior</t>
+  </si>
+  <si>
+    <t>ley</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="63"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -194,7 +228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -243,11 +277,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -261,8 +311,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -544,7 +601,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -605,7 +662,9 @@
       <c r="C2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
@@ -637,7 +696,9 @@
       <c r="C3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="3"/>
       <c r="G3" s="1"/>
@@ -669,7 +730,9 @@
       <c r="C4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
       <c r="G4" s="1"/>
@@ -701,7 +764,9 @@
       <c r="C5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="3"/>
       <c r="G5" s="1"/>
@@ -733,7 +798,9 @@
       <c r="C6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="3"/>
       <c r="G6" s="1"/>
@@ -762,8 +829,12 @@
         <v>12</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="3"/>
       <c r="G7" s="1"/>
@@ -792,8 +863,12 @@
         <v>13</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
       <c r="G8" s="1"/>
@@ -822,8 +897,12 @@
         <v>14</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="3"/>
       <c r="G9" s="1"/>
@@ -852,8 +931,12 @@
         <v>15</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="3"/>
       <c r="G10" s="1"/>
@@ -882,8 +965,12 @@
         <v>16</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="3"/>
       <c r="G11" s="1"/>
@@ -912,8 +999,12 @@
         <v>17</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
       <c r="G12" s="1"/>
@@ -943,7 +1034,9 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="3"/>
       <c r="G13" s="1"/>
@@ -973,7 +1066,9 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="3"/>
       <c r="G14" s="1"/>
@@ -1003,7 +1098,9 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="3"/>
       <c r="G15" s="1"/>
@@ -1033,7 +1130,9 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
       <c r="G16" s="1"/>
@@ -1063,7 +1162,9 @@
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="3"/>
       <c r="G17" s="1"/>
@@ -1093,7 +1194,9 @@
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="3"/>
       <c r="G18" s="1"/>
@@ -1123,7 +1226,9 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="3"/>
       <c r="G19" s="1"/>
